--- a/Data/subset1.xlsx
+++ b/Data/subset1.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AADC61-17FF-4204-9813-E4FC9F7EDEE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E25780A-F6F5-43AC-B7A9-E86A7B6B3CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,76 +39,76 @@
     <t>population</t>
   </si>
   <si>
-    <t>Population change</t>
-  </si>
-  <si>
-    <t>No Briths E&amp;W</t>
-  </si>
-  <si>
-    <t>No Births NI</t>
-  </si>
-  <si>
-    <t>No Births S</t>
-  </si>
-  <si>
-    <t>No Births All</t>
-  </si>
-  <si>
-    <t>Fertility Rates %</t>
-  </si>
-  <si>
-    <t>No births male</t>
-  </si>
-  <si>
-    <t>No births female</t>
-  </si>
-  <si>
-    <t>No deaths EW</t>
-  </si>
-  <si>
-    <t>No deaths NI</t>
-  </si>
-  <si>
-    <t>No deaths S</t>
-  </si>
-  <si>
-    <t>All Deaths</t>
-  </si>
-  <si>
     <t>Births_Deaths</t>
-  </si>
-  <si>
-    <t>Mortality rate</t>
-  </si>
-  <si>
-    <t>No deaths male</t>
-  </si>
-  <si>
-    <t>No deaths female</t>
   </si>
   <si>
     <t>Migration</t>
   </si>
   <si>
-    <t>Migration rate</t>
+    <t>id</t>
   </si>
   <si>
-    <t>EU Imgration</t>
+    <t>Population_change</t>
   </si>
   <si>
-    <t>EU Emigration</t>
+    <t>No_Births_NI</t>
   </si>
   <si>
-    <t>Population growth</t>
+    <t>No_Births_S</t>
   </si>
   <si>
-    <t>Pop. Growth rate</t>
+    <t>No_Births_All</t>
   </si>
   <si>
-    <t>Population growth all</t>
+    <t>Fertility_Rates_%</t>
   </si>
   <si>
-    <t>id</t>
+    <t>No_births_male</t>
+  </si>
+  <si>
+    <t>No_births_female</t>
+  </si>
+  <si>
+    <t>No_deaths_EW</t>
+  </si>
+  <si>
+    <t>No_deaths_NI</t>
+  </si>
+  <si>
+    <t>No_deaths_S</t>
+  </si>
+  <si>
+    <t>All_Deaths</t>
+  </si>
+  <si>
+    <t>Mortality_rate</t>
+  </si>
+  <si>
+    <t>No_deaths_male</t>
+  </si>
+  <si>
+    <t>No_deaths_female</t>
+  </si>
+  <si>
+    <t>Migration_rate</t>
+  </si>
+  <si>
+    <t>EU_Imgration</t>
+  </si>
+  <si>
+    <t>EU_Emigration</t>
+  </si>
+  <si>
+    <t>Population_growth</t>
+  </si>
+  <si>
+    <t>Pop._Growth_rate</t>
+  </si>
+  <si>
+    <t>Population_growth_all</t>
+  </si>
+  <si>
+    <t>No_Briths_E_W</t>
   </si>
 </sst>
 </file>
@@ -502,14 +513,22 @@
   <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" customWidth="1"/>
+    <col min="23" max="24" width="18.42578125" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" customWidth="1"/>
+    <col min="26" max="26" width="24.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -518,55 +537,55 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>19</v>

--- a/Data/subset1.xlsx
+++ b/Data/subset1.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\FoundationOfDataScience\Project_FODS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E25780A-F6F5-43AC-B7A9-E86A7B6B3CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7B954-2B98-4B2D-AFF0-29AECCA5DC4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>year</t>
   </si>
@@ -39,16 +28,10 @@
     <t>population</t>
   </si>
   <si>
-    <t>Births_Deaths</t>
+    <t>Population_change</t>
   </si>
   <si>
-    <t>Migration</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Population_change</t>
+    <t>No_Briths_E&amp;W</t>
   </si>
   <si>
     <t>No_Births_NI</t>
@@ -81,6 +64,9 @@
     <t>All_Deaths</t>
   </si>
   <si>
+    <t>Births_Deaths</t>
+  </si>
+  <si>
     <t>Mortality_rate</t>
   </si>
   <si>
@@ -88,6 +74,15 @@
   </si>
   <si>
     <t>No_deaths_female</t>
+  </si>
+  <si>
+    <t>Imigration</t>
+  </si>
+  <si>
+    <t>Emigration</t>
+  </si>
+  <si>
+    <t>Migration</t>
   </si>
   <si>
     <t>Migration_rate</t>
@@ -102,13 +97,13 @@
     <t>Population_growth</t>
   </si>
   <si>
-    <t>Pop._Growth_rate</t>
+    <t>Pop_Growth_rate</t>
   </si>
   <si>
     <t>Population_growth_all</t>
   </si>
   <si>
-    <t>No_Briths_E_W</t>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -510,25 +505,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" customWidth="1"/>
-    <col min="23" max="24" width="18.42578125" customWidth="1"/>
-    <col min="25" max="25" width="19.42578125" customWidth="1"/>
-    <col min="26" max="26" width="24.28515625" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -537,55 +528,55 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>19</v>
@@ -605,8 +596,14 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -665,28 +662,34 @@
         <v>291571</v>
       </c>
       <c r="T2">
+        <v>632000</v>
+      </c>
+      <c r="U2">
+        <v>319000</v>
+      </c>
+      <c r="V2">
         <v>313000</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>4.7842467502316119E-3</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>269000</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>86000</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>506383</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>7.6887621840376731E-3</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>439029</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -745,28 +748,34 @@
         <v>297064</v>
       </c>
       <c r="T3">
+        <v>526000</v>
+      </c>
+      <c r="U3">
+        <v>317000</v>
+      </c>
+      <c r="V3">
         <v>209000</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>3.2161753986957222E-3</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>264000</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>89000</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>519011</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>7.9331523644870904E-3</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>458706</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -825,28 +834,34 @@
         <v>295393</v>
       </c>
       <c r="T4">
+        <v>498000</v>
+      </c>
+      <c r="U4">
+        <v>321000</v>
+      </c>
+      <c r="V4">
         <v>177000</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>2.7431095567581288E-3</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>201000</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>78000</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>411345</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>6.3299410018013971E-3</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>503393</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -905,28 +920,34 @@
         <v>284557</v>
       </c>
       <c r="T5">
+        <v>566000</v>
+      </c>
+      <c r="U5">
+        <v>351000</v>
+      </c>
+      <c r="V5">
         <v>215000</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>3.3582248604575571E-3</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>158000</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>75000</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>420946</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>6.5237344377350702E-3</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>562111</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -985,28 +1006,34 @@
         <v>290558.5</v>
       </c>
       <c r="T6">
+        <v>591000</v>
+      </c>
+      <c r="U6">
+        <v>339000</v>
+      </c>
+      <c r="V6">
         <v>252000</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>3.9710173721294586E-3</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>174000</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>92000</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>470544</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>7.3497328313448396E-3</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>631192</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -1065,28 +1092,34 @@
         <v>288520.5</v>
       </c>
       <c r="T7">
+        <v>567000</v>
+      </c>
+      <c r="U7">
+        <v>368000</v>
+      </c>
+      <c r="V7">
         <v>199000</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>3.167346547948788E-3</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>176000</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>99000</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>497605</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>7.8412622994384097E-3</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>683519</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -1145,28 +1178,34 @@
         <v>302725.5</v>
       </c>
       <c r="T8">
+        <v>590000</v>
+      </c>
+      <c r="U8">
+        <v>427000</v>
+      </c>
+      <c r="V8">
         <v>163000</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>2.6228939670011301E-3</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>167000</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>109000</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>429587</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>6.8374417160486237E-3</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>689935</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>12</v>
       </c>
@@ -1225,28 +1264,34 @@
         <v>299680.5</v>
       </c>
       <c r="T9">
+        <v>574000</v>
+      </c>
+      <c r="U9">
+        <v>341000</v>
+      </c>
+      <c r="V9">
         <v>233000</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>3.7913820811342099E-3</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>198000</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>134000</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>377686</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>6.0774866921520778E-3</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>633806</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>13</v>
       </c>
@@ -1305,28 +1350,34 @@
         <v>297819</v>
       </c>
       <c r="T10">
+        <v>596000</v>
+      </c>
+      <c r="U10">
+        <v>398000</v>
+      </c>
+      <c r="V10">
         <v>198000</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>3.2554354756575959E-3</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>195000</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>69000</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>430558</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>7.0060510132574378E-3</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>533402</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -1385,28 +1436,34 @@
         <v>305460</v>
       </c>
       <c r="T11">
+        <v>567000</v>
+      </c>
+      <c r="U11">
+        <v>361000</v>
+      </c>
+      <c r="V11">
         <v>206000</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>3.4169346665836428E-3</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>170000</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>66000</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>374339</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>6.1547295985969136E-3</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>415201</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>15</v>
       </c>
@@ -1465,28 +1522,34 @@
         <v>305631</v>
       </c>
       <c r="T12">
+        <v>589000</v>
+      </c>
+      <c r="U12">
+        <v>344000</v>
+      </c>
+      <c r="V12">
         <v>245000</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>4.0920116033415074E-3</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>151000</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>55000</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>345585</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>5.732239644423826E-3</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>311321</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>16</v>
       </c>
@@ -1545,28 +1608,34 @@
         <v>322589</v>
       </c>
       <c r="T13">
+        <v>511000</v>
+      </c>
+      <c r="U13">
+        <v>363000</v>
+      </c>
+      <c r="V13">
         <v>148000</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>2.4848294446647959E-3</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>127000</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>43000</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>376205</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>6.2834090825922102E-3</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>235138</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -1625,28 +1694,34 @@
         <v>318619</v>
       </c>
       <c r="T14">
+        <v>516000</v>
+      </c>
+      <c r="U14">
+        <v>363000</v>
+      </c>
+      <c r="V14">
         <v>153000</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>2.5789576540884221E-3</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>66000</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>51000</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>231464</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>3.8861389363506241E-3</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>202006</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18</v>
       </c>
@@ -1705,28 +1780,34 @@
         <v>316204.5</v>
       </c>
       <c r="T15">
+        <v>481000</v>
+      </c>
+      <c r="U15">
+        <v>309000</v>
+      </c>
+      <c r="V15">
         <v>172000</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>2.9091259416096481E-3</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>61000</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>54000</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>213732</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>3.6026521393701079E-3</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>200979</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>19</v>
       </c>
@@ -1785,28 +1866,34 @@
         <v>318918.5</v>
       </c>
       <c r="T16">
+        <v>479000</v>
+      </c>
+      <c r="U16">
+        <v>321000</v>
+      </c>
+      <c r="V16">
         <v>158000</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>2.6814515797135559E-3</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>58000</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>51000</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>236730</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>4.0039382799840232E-3</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>207455</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -1865,28 +1952,34 @@
         <v>329873.5</v>
       </c>
       <c r="T17">
+        <v>454000</v>
+      </c>
+      <c r="U17">
+        <v>291000</v>
+      </c>
+      <c r="V17">
         <v>163000</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>2.776081567339547E-3</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>63000</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>57000</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>226450</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>3.8431310773805998E-3</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>205880</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>21</v>
       </c>
@@ -1945,28 +2038,34 @@
         <v>327761.5</v>
       </c>
       <c r="T18">
+        <v>391000</v>
+      </c>
+      <c r="U18">
+        <v>251000</v>
+      </c>
+      <c r="V18">
         <v>140000</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>2.392754438756031E-3</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>66000</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>59000</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>233500</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>3.9767794231520496E-3</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>202661</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>22</v>
       </c>
@@ -2025,28 +2124,34 @@
         <v>330562.5</v>
       </c>
       <c r="T19">
+        <v>327000</v>
+      </c>
+      <c r="U19">
+        <v>279000</v>
+      </c>
+      <c r="V19">
         <v>48000</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>8.2322435266396173E-4</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>82000</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>49000</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>229296</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>3.9189215842071641E-3</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>193756</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>23</v>
       </c>
@@ -2105,28 +2210,34 @@
         <v>332236</v>
       </c>
       <c r="T20">
+        <v>318000</v>
+      </c>
+      <c r="U20">
+        <v>264000</v>
+      </c>
+      <c r="V20">
         <v>54000</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>9.2921519156020688E-4</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>71000</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>53000</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>142105</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>2.4371728465690059E-3</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>181104</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>24</v>
       </c>
@@ -2185,28 +2296,34 @@
         <v>332557</v>
       </c>
       <c r="T21">
+        <v>312000</v>
+      </c>
+      <c r="U21">
+        <v>236000</v>
+      </c>
+      <c r="V21">
         <v>76000</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>1.3118726389852681E-3</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>72000</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>44000</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>148284</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>2.5516249160243282E-3</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>169075</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -2265,28 +2382,34 @@
         <v>323420</v>
       </c>
       <c r="T22">
+        <v>315000</v>
+      </c>
+      <c r="U22">
+        <v>238000</v>
+      </c>
+      <c r="V22">
         <v>77000</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>1.333024533295127E-3</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>61000</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>38000</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>166170</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>2.8683404792129211E-3</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>161094</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>26</v>
       </c>
@@ -2345,28 +2468,34 @@
         <v>340571.5</v>
       </c>
       <c r="T23">
+        <v>266000</v>
+      </c>
+      <c r="U23">
+        <v>266000</v>
+      </c>
+      <c r="V23">
         <v>0</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>0</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>50000</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>42000</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>201258</v>
       </c>
-      <c r="Y23">
+      <c r="AA23">
         <v>3.4841798898949429E-3</v>
       </c>
-      <c r="Z23">
+      <c r="AB23">
         <v>156247</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>27</v>
       </c>
@@ -2425,28 +2554,34 @@
         <v>325678</v>
       </c>
       <c r="T24">
+        <v>268000</v>
+      </c>
+      <c r="U24">
+        <v>281000</v>
+      </c>
+      <c r="V24">
         <v>-13000</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>-2.2629933549637201E-4</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>44000</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>40000</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <v>103332</v>
       </c>
-      <c r="Y24">
+      <c r="AA24">
         <v>1.793887200722805E-3</v>
       </c>
-      <c r="Z24">
+      <c r="AB24">
         <v>155252</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>28</v>
       </c>
@@ -2505,28 +2640,34 @@
         <v>331739</v>
       </c>
       <c r="T25">
-        <v>44000</v>
+        <v>329000</v>
       </c>
       <c r="U25">
-        <v>7.6801181900370186E-4</v>
+        <v>285000</v>
       </c>
       <c r="V25">
         <v>44000</v>
       </c>
       <c r="W25">
+        <v>7.6801181900370186E-4</v>
+      </c>
+      <c r="X25">
+        <v>44000</v>
+      </c>
+      <c r="Y25">
         <v>38000</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <v>133561</v>
       </c>
-      <c r="Y25">
+      <c r="AA25">
         <v>2.3249819652485341E-3</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <v>156394</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>29</v>
       </c>
@@ -2585,28 +2726,34 @@
         <v>327133</v>
       </c>
       <c r="T26">
+        <v>267000</v>
+      </c>
+      <c r="U26">
+        <v>231000</v>
+      </c>
+      <c r="V26">
         <v>36000</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>6.3009335305595543E-4</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>53000</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>53000</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <v>190088</v>
       </c>
-      <c r="Y26">
+      <c r="AA26">
         <v>3.3179506966085378E-3</v>
       </c>
-      <c r="Z26">
+      <c r="AB26">
         <v>160094</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30</v>
       </c>
@@ -2665,28 +2812,34 @@
         <v>337496</v>
       </c>
       <c r="T27">
+        <v>250000</v>
+      </c>
+      <c r="U27">
+        <v>205000</v>
+      </c>
+      <c r="V27">
         <v>45000</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>7.8982984204263194E-4</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>37000</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>30000</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>192565</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>3.3703868480894458E-3</v>
       </c>
-      <c r="Z27">
+      <c r="AB27">
         <v>161540</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>31</v>
       </c>
@@ -2745,28 +2898,34 @@
         <v>330145.5</v>
       </c>
       <c r="T28">
+        <v>216000</v>
+      </c>
+      <c r="U28">
+        <v>237000</v>
+      </c>
+      <c r="V28">
         <v>-21000</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>-3.6963529159480851E-4</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>31000</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>22000</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>164303</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <v>2.8838091674917902E-3</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
         <v>154487</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>32</v>
       </c>
@@ -2825,28 +2984,34 @@
         <v>326114</v>
       </c>
       <c r="T29">
+        <v>211000</v>
+      </c>
+      <c r="U29">
+        <v>209000</v>
+      </c>
+      <c r="V29">
         <v>2000</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>3.5299348179886183E-5</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>27000</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>24000</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <v>117125</v>
       </c>
-      <c r="Y29">
+      <c r="AA29">
         <v>2.0615968346686638E-3</v>
       </c>
-      <c r="Z29">
+      <c r="AB29">
         <v>135767</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>33</v>
       </c>
@@ -2905,28 +3070,34 @@
         <v>333697.5</v>
       </c>
       <c r="T30">
+        <v>250000</v>
+      </c>
+      <c r="U30">
+        <v>213000</v>
+      </c>
+      <c r="V30">
         <v>37000</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>6.5460653785979713E-4</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>26000</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <v>21000</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <v>133063</v>
       </c>
-      <c r="Y30">
+      <c r="AA30">
         <v>2.348518583430098E-3</v>
       </c>
-      <c r="Z30">
+      <c r="AB30">
         <v>108950</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>34</v>
       </c>
@@ -2985,28 +3156,34 @@
         <v>339204.5</v>
       </c>
       <c r="T31">
+        <v>232000</v>
+      </c>
+      <c r="U31">
+        <v>174000</v>
+      </c>
+      <c r="V31">
         <v>58000</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>1.02812173521494E-3</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>36000</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <v>13000</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <v>131070</v>
       </c>
-      <c r="Y31">
+      <c r="AA31">
         <v>2.318899430196854E-3</v>
       </c>
-      <c r="Z31">
+      <c r="AB31">
         <v>80652</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>35</v>
       </c>
@@ -3065,28 +3242,34 @@
         <v>323984</v>
       </c>
       <c r="T32">
+        <v>201000</v>
+      </c>
+      <c r="U32">
+        <v>164000</v>
+      </c>
+      <c r="V32">
         <v>37000</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>6.5680977445134589E-4</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>24000</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <v>13000</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <v>137864</v>
       </c>
-      <c r="Y32">
+      <c r="AA32">
         <v>2.443809912132285E-3</v>
       </c>
-      <c r="Z32">
+      <c r="AB32">
         <v>56103</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -3145,28 +3328,34 @@
         <v>330466.5</v>
       </c>
       <c r="T33">
+        <v>202000</v>
+      </c>
+      <c r="U33">
+        <v>184000</v>
+      </c>
+      <c r="V33">
         <v>18000</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <v>3.198476217499084E-4</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <v>19000</v>
       </c>
-      <c r="W33">
+      <c r="Y33">
         <v>10000</v>
       </c>
-      <c r="X33">
+      <c r="Z33">
         <v>121483</v>
       </c>
-      <c r="Y33">
+      <c r="AA33">
         <v>2.1565195089100768E-3</v>
       </c>
-      <c r="Z33">
+      <c r="AB33">
         <v>35386</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -3225,28 +3414,34 @@
         <v>332875</v>
       </c>
       <c r="T34">
+        <v>201000</v>
+      </c>
+      <c r="U34">
+        <v>257000</v>
+      </c>
+      <c r="V34">
         <v>-56000</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>-9.9570757576285598E-4</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>13000</v>
       </c>
-      <c r="W34">
+      <c r="Y34">
         <v>12000</v>
       </c>
-      <c r="X34">
+      <c r="Z34">
         <v>80137</v>
       </c>
-      <c r="Y34">
+      <c r="AA34">
         <v>1.423979381342912E-3</v>
       </c>
-      <c r="Z34">
+      <c r="AB34">
         <v>20677</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -3305,28 +3500,34 @@
         <v>329124</v>
       </c>
       <c r="T35">
+        <v>153000</v>
+      </c>
+      <c r="U35">
+        <v>232000</v>
+      </c>
+      <c r="V35">
         <v>-79000</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <v>-1.4051755104233341E-3</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <v>18000</v>
       </c>
-      <c r="W35">
+      <c r="Y35">
         <v>12000</v>
       </c>
-      <c r="X35">
+      <c r="Z35">
         <v>198</v>
       </c>
-      <c r="Y35">
+      <c r="AA35">
         <v>3.52053750001867E-6</v>
       </c>
-      <c r="Z35">
+      <c r="AB35">
         <v>11564</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -3385,28 +3586,34 @@
         <v>329563.5</v>
       </c>
       <c r="T36">
+        <v>173000</v>
+      </c>
+      <c r="U36">
+        <v>228000</v>
+      </c>
+      <c r="V36">
         <v>-55000</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <v>-9.7848801221423463E-4</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <v>12000</v>
       </c>
-      <c r="W36">
+      <c r="Y36">
         <v>16000</v>
       </c>
-      <c r="X36">
+      <c r="Z36">
         <v>-6262</v>
       </c>
-      <c r="Y36">
+      <c r="AA36">
         <v>-1.113823929907711E-4</v>
       </c>
-      <c r="Z36">
+      <c r="AB36">
         <v>4088</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40</v>
       </c>
@@ -3465,28 +3672,34 @@
         <v>336425.5</v>
       </c>
       <c r="T37">
+        <v>195000</v>
+      </c>
+      <c r="U37">
+        <v>189000</v>
+      </c>
+      <c r="V37">
         <v>6000</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <v>1.067519106768333E-4</v>
       </c>
-      <c r="V37">
+      <c r="X37">
         <v>18000</v>
       </c>
-      <c r="W37">
+      <c r="Y37">
         <v>21000</v>
       </c>
-      <c r="X37">
+      <c r="Z37">
         <v>37189</v>
       </c>
-      <c r="Y37">
+      <c r="AA37">
         <v>6.6161801247700304E-4</v>
       </c>
-      <c r="Z37">
+      <c r="AB37">
         <v>-830</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>41</v>
       </c>
@@ -3545,28 +3758,34 @@
         <v>331163.5</v>
       </c>
       <c r="T38">
+        <v>187000</v>
+      </c>
+      <c r="U38">
+        <v>192000</v>
+      </c>
+      <c r="V38">
         <v>-5000</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <v>-8.8958611881280179E-5</v>
       </c>
-      <c r="V38">
+      <c r="X38">
         <v>18000</v>
       </c>
-      <c r="W38">
+      <c r="Y38">
         <v>13000</v>
       </c>
-      <c r="X38">
+      <c r="Z38">
         <v>64995</v>
       </c>
-      <c r="Y38">
+      <c r="AA38">
         <v>1.156390072406796E-3</v>
       </c>
-      <c r="Z38">
+      <c r="AB38">
         <v>2318</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42</v>
       </c>
@@ -3625,28 +3844,34 @@
         <v>325629.5</v>
       </c>
       <c r="T39">
+        <v>162000</v>
+      </c>
+      <c r="U39">
+        <v>208000</v>
+      </c>
+      <c r="V39">
         <v>-46000</v>
       </c>
-      <c r="U39">
+      <c r="W39">
         <v>-8.1845298330115719E-4</v>
       </c>
-      <c r="V39">
+      <c r="X39">
         <v>17000</v>
       </c>
-      <c r="W39">
+      <c r="Y39">
         <v>15000</v>
       </c>
-      <c r="X39">
+      <c r="Z39">
         <v>14775</v>
       </c>
-      <c r="Y39">
+      <c r="AA39">
         <v>2.6287269810918292E-4</v>
       </c>
-      <c r="Z39">
+      <c r="AB39">
         <v>15247</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43</v>
       </c>
@@ -3705,28 +3930,34 @@
         <v>339243</v>
       </c>
       <c r="T40">
+        <v>191000</v>
+      </c>
+      <c r="U40">
+        <v>210000</v>
+      </c>
+      <c r="V40">
         <v>-19000</v>
       </c>
-      <c r="U40">
+      <c r="W40">
         <v>-3.381484004477227E-4</v>
       </c>
-      <c r="V40">
+      <c r="X40">
         <v>14000</v>
       </c>
-      <c r="W40">
+      <c r="Y40">
         <v>14000</v>
       </c>
-      <c r="X40">
+      <c r="Z40">
         <v>-44105</v>
       </c>
-      <c r="Y40">
+      <c r="AA40">
         <v>-7.8473627888038121E-4</v>
       </c>
-      <c r="Z40">
+      <c r="AB40">
         <v>36015</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44</v>
       </c>
@@ -3785,28 +4016,34 @@
         <v>327879.5</v>
       </c>
       <c r="T41">
+        <v>197000</v>
+      </c>
+      <c r="U41">
+        <v>238000</v>
+      </c>
+      <c r="V41">
         <v>-41000</v>
       </c>
-      <c r="U41">
+      <c r="W41">
         <v>-7.3015666152286137E-4</v>
       </c>
-      <c r="V41">
+      <c r="X41">
         <v>19000</v>
       </c>
-      <c r="W41">
+      <c r="Y41">
         <v>18000</v>
       </c>
-      <c r="X41">
+      <c r="Z41">
         <v>-24273</v>
       </c>
-      <c r="Y41">
+      <c r="AA41">
         <v>-4.3199348021408278E-4</v>
       </c>
-      <c r="Z41">
+      <c r="AB41">
         <v>60267</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45</v>
       </c>
@@ -3865,24 +4102,30 @@
         <v>330658.5</v>
       </c>
       <c r="T42">
+        <v>184000</v>
+      </c>
+      <c r="U42">
+        <v>269000</v>
+      </c>
+      <c r="V42">
         <v>-85000</v>
       </c>
-      <c r="U42">
+      <c r="W42">
         <v>-1.515365827316826E-3</v>
       </c>
-      <c r="V42">
+      <c r="X42">
         <v>18000</v>
       </c>
-      <c r="W42">
+      <c r="Y42">
         <v>15000</v>
       </c>
-      <c r="X42">
+      <c r="Z42">
         <v>-5959</v>
       </c>
-      <c r="Y42">
+      <c r="AA42">
         <v>-1.061220377076764E-4</v>
       </c>
-      <c r="Z42">
+      <c r="AB42">
         <v>85770</v>
       </c>
     </row>
